--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adam15-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H2">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I2">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J2">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>11782.76049215179</v>
+        <v>11253.81693262755</v>
       </c>
       <c r="R2">
-        <v>47131.04196860717</v>
+        <v>45015.26773051019</v>
       </c>
       <c r="S2">
-        <v>0.0898549277869763</v>
+        <v>0.1117824604485382</v>
       </c>
       <c r="T2">
-        <v>0.05389204834347685</v>
+        <v>0.0701981969845213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H3">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I3">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J3">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>8502.824403296667</v>
+        <v>6631.177572294789</v>
       </c>
       <c r="R3">
-        <v>51016.94641978</v>
+        <v>39787.06543376873</v>
       </c>
       <c r="S3">
-        <v>0.06484224755756152</v>
+        <v>0.06586648326873115</v>
       </c>
       <c r="T3">
-        <v>0.05833539060355731</v>
+        <v>0.06204517706028717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H4">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I4">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J4">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>6051.988833195979</v>
+        <v>4333.499631093888</v>
       </c>
       <c r="R4">
-        <v>36311.93299917588</v>
+        <v>26000.99778656333</v>
       </c>
       <c r="S4">
-        <v>0.04615225947575054</v>
+        <v>0.04304399600744235</v>
       </c>
       <c r="T4">
-        <v>0.04152092478541294</v>
+        <v>0.04054675794315415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H5">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I5">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J5">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>10016.60537003573</v>
+        <v>9605.797419054928</v>
       </c>
       <c r="R5">
-        <v>40066.42148014293</v>
+        <v>38423.18967621971</v>
       </c>
       <c r="S5">
-        <v>0.0763862893415083</v>
+        <v>0.0954129320301175</v>
       </c>
       <c r="T5">
-        <v>0.0458139992915118</v>
+        <v>0.05991830713553166</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H6">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I6">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J6">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>8715.384116758052</v>
+        <v>3341.836799176175</v>
       </c>
       <c r="R6">
-        <v>52292.30470054832</v>
+        <v>20051.02079505705</v>
       </c>
       <c r="S6">
-        <v>0.06646322064924194</v>
+        <v>0.03319395917542809</v>
       </c>
       <c r="T6">
-        <v>0.05979370061011733</v>
+        <v>0.03126818029692956</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.5940935</v>
+        <v>55.83475850000001</v>
       </c>
       <c r="H7">
-        <v>143.188187</v>
+        <v>111.669517</v>
       </c>
       <c r="I7">
-        <v>0.3871779756686048</v>
+        <v>0.3971408294832975</v>
       </c>
       <c r="J7">
-        <v>0.2984720157128297</v>
+        <v>0.3090420772778569</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>5701.44587106144</v>
+        <v>4816.442914475636</v>
       </c>
       <c r="R7">
-        <v>34208.67522636864</v>
+        <v>28898.65748685382</v>
       </c>
       <c r="S7">
-        <v>0.04347903085756622</v>
+        <v>0.04784099855304028</v>
       </c>
       <c r="T7">
-        <v>0.03911595207875349</v>
+        <v>0.0450654578574331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>21.562193</v>
       </c>
       <c r="I8">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J8">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>1182.882289978069</v>
+        <v>1448.661366783937</v>
       </c>
       <c r="R8">
-        <v>7097.293739868413</v>
+        <v>8691.968200703623</v>
       </c>
       <c r="S8">
-        <v>0.009020619812926543</v>
+        <v>0.01438933411706405</v>
       </c>
       <c r="T8">
-        <v>0.008115409321771622</v>
+        <v>0.01355452331393415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>21.562193</v>
       </c>
       <c r="I9">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J9">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>853.6064539504345</v>
+        <v>853.6064539504346</v>
       </c>
       <c r="R9">
-        <v>7682.458085553911</v>
+        <v>7682.458085553912</v>
       </c>
       <c r="S9">
-        <v>0.006509573569733654</v>
+        <v>0.008478743723002172</v>
       </c>
       <c r="T9">
-        <v>0.00878451621797746</v>
+        <v>0.01198026210226273</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>21.562193</v>
       </c>
       <c r="I10">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J10">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>607.5647905005669</v>
+        <v>557.8350470885455</v>
       </c>
       <c r="R10">
-        <v>5468.083114505102</v>
+        <v>5020.515423796909</v>
       </c>
       <c r="S10">
-        <v>0.004633268274671346</v>
+        <v>0.005540891100440605</v>
       </c>
       <c r="T10">
-        <v>0.006252486413293</v>
+        <v>0.007829146608510654</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>21.562193</v>
       </c>
       <c r="I11">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J11">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>1005.576333814683</v>
+        <v>1236.518036631036</v>
       </c>
       <c r="R11">
-        <v>6033.458002888097</v>
+        <v>7419.108219786219</v>
       </c>
       <c r="S11">
-        <v>0.007668490666460938</v>
+        <v>0.01228214652424962</v>
       </c>
       <c r="T11">
-        <v>0.006898965030023328</v>
+        <v>0.01156958619861865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>21.562193</v>
       </c>
       <c r="I12">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J12">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>874.9455213772706</v>
+        <v>430.1820345973134</v>
       </c>
       <c r="R12">
-        <v>7874.509692395435</v>
+        <v>3871.638311375821</v>
       </c>
       <c r="S12">
-        <v>0.006672304566765879</v>
+        <v>0.004272933046265444</v>
       </c>
       <c r="T12">
-        <v>0.009004117865809473</v>
+        <v>0.006037552202551322</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>21.562193</v>
       </c>
       <c r="I13">
-        <v>0.0388691572567401</v>
+        <v>0.05112243963885537</v>
       </c>
       <c r="J13">
-        <v>0.0449458250902993</v>
+        <v>0.05967272980491233</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>572.3734563423628</v>
+        <v>620.0025126845562</v>
       </c>
       <c r="R13">
-        <v>5151.361107081266</v>
+        <v>5580.022614161006</v>
       </c>
       <c r="S13">
-        <v>0.004364900366181736</v>
+        <v>0.006158391127833481</v>
       </c>
       <c r="T13">
-        <v>0.005890330241424413</v>
+        <v>0.008701659379034825</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H14">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I14">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J14">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>5201.993146627166</v>
+        <v>5935.807593539744</v>
       </c>
       <c r="R14">
-        <v>31211.95887976299</v>
+        <v>35614.84556123846</v>
       </c>
       <c r="S14">
-        <v>0.03967022149434929</v>
+        <v>0.05895947850646885</v>
       </c>
       <c r="T14">
-        <v>0.03568935305871635</v>
+        <v>0.05553888869990257</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H15">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I15">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J15">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>3753.927978285317</v>
+        <v>3497.603917264693</v>
       </c>
       <c r="R15">
-        <v>33785.35180456785</v>
+        <v>31478.43525538224</v>
       </c>
       <c r="S15">
-        <v>0.02862732613728423</v>
+        <v>0.03474117038573585</v>
       </c>
       <c r="T15">
-        <v>0.03863190238751582</v>
+        <v>0.04908844288232734</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H16">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I16">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J16">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>2671.903961276246</v>
+        <v>2285.697392346242</v>
       </c>
       <c r="R16">
-        <v>24047.13565148621</v>
+        <v>20571.27653111618</v>
       </c>
       <c r="S16">
-        <v>0.02037584805819713</v>
+        <v>0.02270348628264172</v>
       </c>
       <c r="T16">
-        <v>0.02749672705974209</v>
+        <v>0.03207948313890851</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H17">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I17">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J17">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>4422.249991595898</v>
+        <v>5066.56235865373</v>
       </c>
       <c r="R17">
-        <v>26533.49994957539</v>
+        <v>30399.37415192238</v>
       </c>
       <c r="S17">
-        <v>0.03372392691131067</v>
+        <v>0.0503253971391936</v>
       </c>
       <c r="T17">
-        <v>0.03033976339747822</v>
+        <v>0.04740572171420086</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H18">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I18">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J18">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>3847.771366972685</v>
+        <v>1762.646430777602</v>
       </c>
       <c r="R18">
-        <v>34629.94230275416</v>
+        <v>15863.81787699842</v>
       </c>
       <c r="S18">
-        <v>0.02934297260395095</v>
+        <v>0.0175081002394759</v>
       </c>
       <c r="T18">
-        <v>0.03959765043927788</v>
+        <v>0.02473852691319946</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.60821133333333</v>
+        <v>29.44995333333334</v>
       </c>
       <c r="H19">
-        <v>94.824634</v>
+        <v>88.34986000000001</v>
       </c>
       <c r="I19">
-        <v>0.1709359345201494</v>
+        <v>0.2094712900933278</v>
       </c>
       <c r="J19">
-        <v>0.1976594595000447</v>
+        <v>0.2445056179620427</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>2517.142087958286</v>
+        <v>2540.425048385791</v>
       </c>
       <c r="R19">
-        <v>22654.27879162457</v>
+        <v>22863.82543547212</v>
       </c>
       <c r="S19">
-        <v>0.0191956393150571</v>
+        <v>0.02523365753981194</v>
       </c>
       <c r="T19">
-        <v>0.02590406315731436</v>
+        <v>0.035654554613504</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H20">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I20">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J20">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>560.6109946244497</v>
+        <v>927.1428702865038</v>
       </c>
       <c r="R20">
-        <v>2242.443978497799</v>
+        <v>3708.571481146015</v>
       </c>
       <c r="S20">
-        <v>0.004275200236151584</v>
+        <v>0.009209169817528546</v>
       </c>
       <c r="T20">
-        <v>0.002564125346034936</v>
+        <v>0.005783260757732149</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H21">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I21">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J21">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>404.5551845871959</v>
+        <v>546.30789220786</v>
       </c>
       <c r="R21">
-        <v>2427.331107523175</v>
+        <v>3277.84735324716</v>
       </c>
       <c r="S21">
-        <v>0.00308512397592585</v>
+        <v>0.005426393615520744</v>
       </c>
       <c r="T21">
-        <v>0.0027755347628299</v>
+        <v>0.005111576267100168</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H22">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I22">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J22">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>287.9470801001115</v>
+        <v>357.0142743933742</v>
       </c>
       <c r="R22">
-        <v>1727.682480600669</v>
+        <v>2142.085646360245</v>
       </c>
       <c r="S22">
-        <v>0.002195874566583941</v>
+        <v>0.003546168757307409</v>
       </c>
       <c r="T22">
-        <v>0.001975520673375446</v>
+        <v>0.003340434429072491</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H23">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I23">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J23">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>476.5792449907327</v>
+        <v>791.3711982174488</v>
       </c>
       <c r="R23">
-        <v>1906.316979962931</v>
+        <v>3165.484792869795</v>
       </c>
       <c r="S23">
-        <v>0.003634376992720621</v>
+        <v>0.007860570346438025</v>
       </c>
       <c r="T23">
-        <v>0.002179780513033906</v>
+        <v>0.004936354624650413</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H24">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I24">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J24">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>414.6685457524379</v>
+        <v>275.3163820387342</v>
       </c>
       <c r="R24">
-        <v>2488.011274514628</v>
+        <v>1651.898292232405</v>
       </c>
       <c r="S24">
-        <v>0.003162248121646347</v>
+        <v>0.002734675956639535</v>
       </c>
       <c r="T24">
-        <v>0.002844919574970735</v>
+        <v>0.002576021149329515</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.4063695</v>
+        <v>4.5999325</v>
       </c>
       <c r="H25">
-        <v>6.812739</v>
+        <v>9.199865000000001</v>
       </c>
       <c r="I25">
-        <v>0.01842150913453884</v>
+        <v>0.03271834709587181</v>
       </c>
       <c r="J25">
-        <v>0.01420097554454969</v>
+        <v>0.02546035360998159</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>271.2686252684325</v>
+        <v>396.8014350181384</v>
       </c>
       <c r="R25">
-        <v>1627.611751610595</v>
+        <v>2380.80861010883</v>
       </c>
       <c r="S25">
-        <v>0.002068685241510494</v>
+        <v>0.003941368602437548</v>
       </c>
       <c r="T25">
-        <v>0.001861094674304766</v>
+        <v>0.003712706382096859</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H26">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I26">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J26">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>7559.34069637903</v>
+        <v>2435.205304848486</v>
       </c>
       <c r="R26">
-        <v>45356.04417827418</v>
+        <v>14611.23182909092</v>
       </c>
       <c r="S26">
-        <v>0.0576472731362669</v>
+        <v>0.02418852575112396</v>
       </c>
       <c r="T26">
-        <v>0.05186242492055516</v>
+        <v>0.02278520559436439</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H27">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I27">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J27">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>5455.066882571171</v>
+        <v>1434.915717762104</v>
       </c>
       <c r="R27">
-        <v>49095.60194314054</v>
+        <v>12914.24145985893</v>
       </c>
       <c r="S27">
-        <v>0.04160015313330397</v>
+        <v>0.01425280066558522</v>
       </c>
       <c r="T27">
-        <v>0.05613842688082665</v>
+        <v>0.020138866469307</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H28">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I28">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J28">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>3882.710296223209</v>
+        <v>937.7228502449863</v>
       </c>
       <c r="R28">
-        <v>34944.39266600888</v>
+        <v>8439.505652204876</v>
       </c>
       <c r="S28">
-        <v>0.02960941568126303</v>
+        <v>0.009314259157290823</v>
       </c>
       <c r="T28">
-        <v>0.03995720909680627</v>
+        <v>0.01316082542865605</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H29">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I29">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J29">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>6426.24728421785</v>
+        <v>2078.591554511884</v>
       </c>
       <c r="R29">
-        <v>38557.4837053071</v>
+        <v>12471.54932707131</v>
       </c>
       <c r="S29">
-        <v>0.0490063415995988</v>
+        <v>0.02064633533865749</v>
       </c>
       <c r="T29">
-        <v>0.04408860252301015</v>
+        <v>0.01944851870270111</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H30">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I30">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J30">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>5591.436563805852</v>
+        <v>723.1376474320901</v>
       </c>
       <c r="R30">
-        <v>50322.92907425266</v>
+        <v>6508.238826888812</v>
       </c>
       <c r="S30">
-        <v>0.04264010364980958</v>
+        <v>0.00718281681289562</v>
       </c>
       <c r="T30">
-        <v>0.05754181560979241</v>
+        <v>0.01014914837177783</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>45.93186333333333</v>
+        <v>12.082043</v>
       </c>
       <c r="H31">
-        <v>137.79559</v>
+        <v>36.246129</v>
       </c>
       <c r="I31">
-        <v>0.2483976679457086</v>
+        <v>0.08593701679345254</v>
       </c>
       <c r="J31">
-        <v>0.2872312888746795</v>
+        <v>0.100310087303782</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>3657.816165407439</v>
+        <v>1042.226597966569</v>
       </c>
       <c r="R31">
-        <v>32920.34548866695</v>
+        <v>9380.039381699116</v>
       </c>
       <c r="S31">
-        <v>0.0278943807454663</v>
+        <v>0.01035227906789944</v>
       </c>
       <c r="T31">
-        <v>0.03764280984368887</v>
+        <v>0.0146275227369756</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H32">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I32">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J32">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>4144.826496265932</v>
+        <v>6336.459721211131</v>
       </c>
       <c r="R32">
-        <v>24868.95897759559</v>
+        <v>38018.75832726679</v>
       </c>
       <c r="S32">
-        <v>0.03160830484160226</v>
+        <v>0.06293909545627051</v>
       </c>
       <c r="T32">
-        <v>0.02843644196037984</v>
+        <v>0.05928762441538266</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H33">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I33">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J33">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>2991.042031564242</v>
+        <v>3733.683410934436</v>
       </c>
       <c r="R33">
-        <v>26919.37828407818</v>
+        <v>33603.15069840993</v>
       </c>
       <c r="S33">
-        <v>0.02280958404722138</v>
+        <v>0.03708611226828409</v>
       </c>
       <c r="T33">
-        <v>0.03078099645724329</v>
+        <v>0.05240178968054313</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H34">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I34">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J34">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>2128.910596769269</v>
+        <v>2439.976234614167</v>
       </c>
       <c r="R34">
-        <v>19160.19537092342</v>
+        <v>21959.7861115275</v>
       </c>
       <c r="S34">
-        <v>0.01623499926566843</v>
+        <v>0.02423591467445793</v>
       </c>
       <c r="T34">
-        <v>0.02190874914006875</v>
+        <v>0.03424476780686007</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H35">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I35">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J35">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>3523.54538378483</v>
+        <v>5408.542612727946</v>
       </c>
       <c r="R35">
-        <v>21141.27230270898</v>
+        <v>32451.25567636768</v>
       </c>
       <c r="S35">
-        <v>0.02687043636548535</v>
+        <v>0.05372223524790688</v>
       </c>
       <c r="T35">
-        <v>0.02417401401265627</v>
+        <v>0.05060548905323382</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H36">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I36">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J36">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>3065.814249244494</v>
+        <v>1881.62064476527</v>
       </c>
       <c r="R36">
-        <v>27592.32824320045</v>
+        <v>16934.58580288744</v>
       </c>
       <c r="S36">
-        <v>0.02337979441724514</v>
+        <v>0.01868985310155728</v>
       </c>
       <c r="T36">
-        <v>0.03155048192191676</v>
+        <v>0.02640831544442081</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.18468366666667</v>
+        <v>31.43775133333333</v>
       </c>
       <c r="H37">
-        <v>75.554051</v>
+        <v>94.31325399999999</v>
       </c>
       <c r="I37">
-        <v>0.1361977554742582</v>
+        <v>0.2236100768951949</v>
       </c>
       <c r="J37">
-        <v>0.1574904352775969</v>
+        <v>0.2610091340414246</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>2005.59995504804</v>
+        <v>2711.897368670096</v>
       </c>
       <c r="R37">
-        <v>18050.39959543236</v>
+        <v>24407.07631803086</v>
       </c>
       <c r="S37">
-        <v>0.01529463653703562</v>
+        <v>0.02693686614671826</v>
       </c>
       <c r="T37">
-        <v>0.02063975178533196</v>
+        <v>0.03806114764098409</v>
       </c>
     </row>
   </sheetData>
